--- a/reports_pdf/brasil/risk-pt/Cases/08-07-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/08-07-2020_brasil_report_EPG.xlsx
@@ -56270,7 +56270,7 @@
         </is>
       </c>
       <c r="D3106" t="n">
-        <v>1202.608256178792</v>
+        <v>1400.024198018654</v>
       </c>
     </row>
     <row r="3107">
@@ -68420,7 +68420,7 @@
         </is>
       </c>
       <c r="D3781" t="n">
-        <v>255.9444011009662</v>
+        <v>256.6069893335635</v>
       </c>
     </row>
   </sheetData>
